--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H2">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I2">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J2">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>1041.468476615744</v>
+        <v>8.173902850408334</v>
       </c>
       <c r="R2">
-        <v>1041.468476615744</v>
+        <v>73.565125653675</v>
       </c>
       <c r="S2">
-        <v>0.5150947179049888</v>
+        <v>0.003597864265472143</v>
       </c>
       <c r="T2">
-        <v>0.5150947179049888</v>
+        <v>0.003597864265472144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H3">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I3">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J3">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>287.4126054880134</v>
+        <v>2.227981058877778</v>
       </c>
       <c r="R3">
-        <v>287.4126054880134</v>
+        <v>20.0518295299</v>
       </c>
       <c r="S3">
-        <v>0.142149972150149</v>
+        <v>0.0009806788241292469</v>
       </c>
       <c r="T3">
-        <v>0.142149972150149</v>
+        <v>0.0009806788241292469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H4">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I4">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J4">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>569.0058076072196</v>
+        <v>4.834312488866112</v>
       </c>
       <c r="R4">
-        <v>569.0058076072196</v>
+        <v>43.508812399795</v>
       </c>
       <c r="S4">
-        <v>0.2814217545096943</v>
+        <v>0.002127894161471247</v>
       </c>
       <c r="T4">
-        <v>0.2814217545096943</v>
+        <v>0.002127894161471248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H5">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I5">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J5">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>97.66138514429282</v>
+        <v>1.110497673034444</v>
       </c>
       <c r="R5">
-        <v>97.66138514429282</v>
+        <v>9.99447905731</v>
       </c>
       <c r="S5">
-        <v>0.04830185911586671</v>
+        <v>0.0004888019796443999</v>
       </c>
       <c r="T5">
-        <v>0.04830185911586671</v>
+        <v>0.0004888019796444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H6">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I6">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J6">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>13.75130372755344</v>
+        <v>1110.488350369512</v>
       </c>
       <c r="R6">
-        <v>13.75130372755344</v>
+        <v>9994.395153325606</v>
       </c>
       <c r="S6">
-        <v>0.006801188968663674</v>
+        <v>0.4887978761355088</v>
       </c>
       <c r="T6">
-        <v>0.006801188968663674</v>
+        <v>0.4887978761355089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H7">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I7">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J7">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>3.794928144187497</v>
+        <v>302.6885755810155</v>
       </c>
       <c r="R7">
-        <v>3.794928144187497</v>
+        <v>2724.19718022914</v>
       </c>
       <c r="S7">
-        <v>0.001876914650601736</v>
+        <v>0.1332328545592142</v>
       </c>
       <c r="T7">
-        <v>0.001876914650601736</v>
+        <v>0.1332328545592142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H8">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I8">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J8">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>7.513018261075641</v>
+        <v>656.7789951973153</v>
       </c>
       <c r="R8">
-        <v>7.513018261075641</v>
+        <v>5911.010956775837</v>
       </c>
       <c r="S8">
-        <v>0.003715826363155124</v>
+        <v>0.2890909912166469</v>
       </c>
       <c r="T8">
-        <v>0.003715826363155124</v>
+        <v>0.2890909912166471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>35.10542566666667</v>
+      </c>
+      <c r="H9">
+        <v>105.316277</v>
+      </c>
+      <c r="I9">
+        <v>0.9775292770250872</v>
+      </c>
+      <c r="J9">
+        <v>0.9775292770250873</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.297619333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.892858</v>
+      </c>
+      <c r="O9">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="P9">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="Q9">
+        <v>150.8697560499629</v>
+      </c>
+      <c r="R9">
+        <v>1357.827804449666</v>
+      </c>
+      <c r="S9">
+        <v>0.06640755511371717</v>
+      </c>
+      <c r="T9">
+        <v>0.06640755511371718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.645738</v>
+      </c>
+      <c r="I10">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J10">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.632955</v>
+      </c>
+      <c r="N10">
+        <v>94.898865</v>
+      </c>
+      <c r="O10">
+        <v>0.5000340016649593</v>
+      </c>
+      <c r="P10">
+        <v>0.5000340016649593</v>
+      </c>
+      <c r="Q10">
+        <v>17.35318536526333</v>
+      </c>
+      <c r="R10">
+        <v>156.17866828737</v>
+      </c>
+      <c r="S10">
+        <v>0.007638261263978217</v>
+      </c>
+      <c r="T10">
+        <v>0.007638261263978218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.44520549575158</v>
-      </c>
-      <c r="H9">
-        <v>0.44520549575158</v>
-      </c>
-      <c r="I9">
-        <v>0.01303169631930108</v>
-      </c>
-      <c r="J9">
-        <v>0.01303169631930108</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.89641046688611</v>
-      </c>
-      <c r="N9">
-        <v>2.89641046688611</v>
-      </c>
-      <c r="O9">
-        <v>0.04893962545274725</v>
-      </c>
-      <c r="P9">
-        <v>0.04893962545274725</v>
-      </c>
-      <c r="Q9">
-        <v>1.289497857810096</v>
-      </c>
-      <c r="R9">
-        <v>1.289497857810096</v>
-      </c>
-      <c r="S9">
-        <v>0.0006377663368805395</v>
-      </c>
-      <c r="T9">
-        <v>0.0006377663368805395</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.645738</v>
+      </c>
+      <c r="I11">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J11">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.622273333333332</v>
+      </c>
+      <c r="N11">
+        <v>25.86682</v>
+      </c>
+      <c r="O11">
+        <v>0.1362955132808722</v>
+      </c>
+      <c r="P11">
+        <v>0.1362955132808722</v>
+      </c>
+      <c r="Q11">
+        <v>4.730000957017777</v>
+      </c>
+      <c r="R11">
+        <v>42.57000861315999</v>
+      </c>
+      <c r="S11">
+        <v>0.002081979897528775</v>
+      </c>
+      <c r="T11">
+        <v>0.002081979897528775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.645738</v>
+      </c>
+      <c r="I12">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J12">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.70876033333333</v>
+      </c>
+      <c r="N12">
+        <v>56.12628100000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2957364019791172</v>
+      </c>
+      <c r="P12">
+        <v>0.2957364019791172</v>
+      </c>
+      <c r="Q12">
+        <v>10.26323927115311</v>
+      </c>
+      <c r="R12">
+        <v>92.369153440378</v>
+      </c>
+      <c r="S12">
+        <v>0.004517516600998933</v>
+      </c>
+      <c r="T12">
+        <v>0.004517516600998935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.645738</v>
+      </c>
+      <c r="I13">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J13">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.297619333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.892858</v>
+      </c>
+      <c r="O13">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="P13">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="Q13">
+        <v>2.357585148800444</v>
+      </c>
+      <c r="R13">
+        <v>21.218266339204</v>
+      </c>
+      <c r="S13">
+        <v>0.001037725981689788</v>
+      </c>
+      <c r="T13">
+        <v>0.001037725981689788</v>
       </c>
     </row>
   </sheetData>
